--- a/Presupuestos.xlsx
+++ b/Presupuestos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27021"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c7d6251a8c33d6b8/Historico/Documents/GitHub/grupo22/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7432ABD-F9E8-44B0-9D89-B7380FADD800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{B7432ABD-F9E8-44B0-9D89-B7380FADD800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08D05051-16F6-4A95-A762-5EA085236E7F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{831A48AF-2CF8-3B4D-B3D9-859D133013E7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{831A48AF-2CF8-3B4D-B3D9-859D133013E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -68,14 +68,6 @@
     <t>Ingeniero Automatizador Junior</t>
   </si>
   <si>
-    <t>Amazon Web Services (AWS)
-Instancia EC2 - Región: US East (N. Virginia)
-Cantidad de Instancias: 1
-Familia de la instancia: c4 - c4.2xlarge
-VCPUs: 8
-Memoria RAM: 1 GB</t>
-  </si>
-  <si>
     <t>Herraminetas para automatizar las pruebas (open source)</t>
   </si>
   <si>
@@ -133,6 +125,14 @@
   <si>
     <t>https://calculator.aws/#/addService/ec2-enhancement</t>
   </si>
+  <si>
+    <t>Amazon Web Services (AWS)
+Instancia EC2 - Región: US East (N. Virginia)
+Cantidad de Instancias: 1
+Familia de la instancia: c4 - c4.2xlarge
+VCPUs: 8
+Memoria RAM: 16 GB</t>
+  </si>
 </sst>
 </file>
 
@@ -142,7 +142,7 @@
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -331,8 +331,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
-    <cellStyle name="Moneda [0]" xfId="1" builtinId="7"/>
+    <cellStyle name="Currency [0]" xfId="1" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -647,23 +647,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D9D3CE-33C3-A24E-BD63-226DED828729}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.125" customWidth="1"/>
-    <col min="2" max="2" width="36.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="1" max="1" width="35.08203125" customWidth="1"/>
+    <col min="2" max="2" width="36.58203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.58203125" customWidth="1"/>
+    <col min="5" max="5" width="18.08203125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="60.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -675,7 +675,7 @@
       <c r="E1" s="19"/>
       <c r="F1" s="20"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -683,7 +683,7 @@
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
@@ -693,7 +693,7 @@
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -713,7 +713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -732,9 +732,9 @@
         <v>1144550</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="119.1">
+    <row r="6" spans="1:6" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B6" s="14">
         <v>1</v>
@@ -753,9 +753,9 @@
         <v>328716</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="33.950000000000003">
+    <row r="7" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="14">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.100000000000001">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
@@ -787,7 +787,7 @@
       <c r="E8" s="22"/>
       <c r="F8" s="23"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -795,9 +795,9 @@
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -805,7 +805,7 @@
       <c r="E10" s="19"/>
       <c r="F10" s="20"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>3</v>
       </c>
@@ -825,9 +825,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="33.950000000000003">
+    <row r="12" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="14">
         <v>3</v>
@@ -846,7 +846,7 @@
         <v>2060190</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17.100000000000001">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
@@ -863,13 +863,13 @@
         <v>22891</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" ref="F13:F14" si="1">(C13*B13*E13)</f>
+        <f t="shared" ref="F13" si="1">(C13*B13*E13)</f>
         <v>686730</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="119.1">
+    <row r="14" spans="1:6" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="14">
         <v>1</v>
@@ -888,9 +888,9 @@
         <v>1321468</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="33.950000000000003">
+    <row r="15" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="14">
         <v>0</v>
@@ -905,11 +905,11 @@
         <v>0</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" ref="F14:F15" si="2">(C15*B15*E15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="17.100000000000001">
+        <f t="shared" ref="F15" si="2">(C15*B15*E15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>8</v>
       </c>
@@ -922,9 +922,9 @@
       <c r="E16" s="22"/>
       <c r="F16" s="23"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -932,7 +932,7 @@
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -940,7 +940,7 @@
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -948,7 +948,7 @@
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
@@ -956,28 +956,28 @@
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="9" t="s">
+    </row>
+    <row r="25" spans="1:6" ht="62" x14ac:dyDescent="0.35">
+      <c r="A25" s="11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="68.099999999999994">
-      <c r="A25" s="11" t="s">
+      <c r="B25" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="12" t="s">
+    </row>
+    <row r="26" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A26" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="33.950000000000003">
-      <c r="A26" s="11" t="s">
+      <c r="B26" s="13" t="s">
         <v>20</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
